--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
@@ -82,7 +82,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Ccl17</t>
@@ -540,10 +540,10 @@
         <v>0.419666</v>
       </c>
       <c r="I2">
-        <v>0.135383749827208</v>
+        <v>0.09367783019478619</v>
       </c>
       <c r="J2">
-        <v>0.1643814475591666</v>
+        <v>0.1170568785762142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,10 +570,10 @@
         <v>0.350816435372</v>
       </c>
       <c r="S2">
-        <v>0.135383749827208</v>
+        <v>0.09367783019478619</v>
       </c>
       <c r="T2">
-        <v>0.1643814475591666</v>
+        <v>0.1170568785762142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5468244999999999</v>
+        <v>0.8947400000000001</v>
       </c>
       <c r="H3">
-        <v>1.093649</v>
+        <v>1.78948</v>
       </c>
       <c r="I3">
-        <v>0.529214789671225</v>
+        <v>0.5991714967746947</v>
       </c>
       <c r="J3">
-        <v>0.4283778188884375</v>
+        <v>0.4991372736284659</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1523711887263333</v>
+        <v>0.2493169150266667</v>
       </c>
       <c r="R3">
-        <v>0.914227132358</v>
+        <v>1.49590149016</v>
       </c>
       <c r="S3">
-        <v>0.529214789671225</v>
+        <v>0.5991714967746947</v>
       </c>
       <c r="T3">
-        <v>0.4283778188884375</v>
+        <v>0.4991372736284659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.346562</v>
+        <v>0.4586666666666666</v>
       </c>
       <c r="H4">
-        <v>1.039686</v>
+        <v>1.376</v>
       </c>
       <c r="I4">
-        <v>0.3354014605015669</v>
+        <v>0.307150673030519</v>
       </c>
       <c r="J4">
-        <v>0.4072407335523957</v>
+        <v>0.3838058477953199</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09656857713466667</v>
+        <v>0.1278062435555556</v>
       </c>
       <c r="R4">
-        <v>0.869117194212</v>
+        <v>1.150256192</v>
       </c>
       <c r="S4">
-        <v>0.3354014605015669</v>
+        <v>0.307150673030519</v>
       </c>
       <c r="T4">
-        <v>0.4072407335523957</v>
+        <v>0.3838058477953199</v>
       </c>
     </row>
   </sheetData>
